--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043718.107124047</v>
+        <v>1072562.417878774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564199</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.3138620892173</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>52.11411575496463</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255734</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>296.7607853996625</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>194.3343546759507</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1023,7 +1025,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1032,7 +1034,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>110.9272034736102</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>40.91389206607264</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>19.35339522489455</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>69.07086245343488</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>334.1169017826961</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>317.0837352438114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755627</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1785,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1850,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>184.5808806410313</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964032</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>23.48692950433957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>223.149833621077</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480831</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>52.10844059186244</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>221.002178698296</v>
       </c>
       <c r="E26" t="n">
-        <v>84.95149223441489</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.72699744179317</v>
       </c>
       <c r="S28" t="n">
-        <v>155.2114886365808</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>159.2031261069684</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>89.86857700878745</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>237.65965699955</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.27152410635478</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>11.67884460201125</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>59.03226091544995</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>177.2389031129445</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>173.9911183689118</v>
       </c>
       <c r="F44" t="n">
-        <v>311.2854181061585</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.4089578252748</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4416,34 +4418,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
         <v>562.6765899837194</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.637173372437</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C5" t="n">
-        <v>565.6746564320254</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>353.7013509109326</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>353.7013509109326</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2051.010918879443</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2051.010918879443</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1698.242263609329</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.776505348249</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>934.637173372437</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,10 +4673,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>616.0813039300605</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.182375355301</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C8" t="n">
-        <v>924.2198584148889</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1290.166034793805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1290.166034793805</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,19 +4907,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4954,10 +4956,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247702</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.915471247702</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.915471247702</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.127218649458</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1413138598505</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>277.1775057580373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.654643287636</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.515311311824</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5227,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785527</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757142</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.54400078133</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.81559303506</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
         <v>2568.06040664989</v>
@@ -5379,25 +5381,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5434,7 +5436,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.9054987607761</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036444</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036444</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036444</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5543,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1573.11042906179</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.64467080071</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>809.505338824898</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>488.6530578264766</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>488.6530578264766</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>77.66715303686908</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>77.66715303686908</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>77.66715303686908</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W22" t="n">
-        <v>502.7251118619119</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X22" t="n">
-        <v>274.7355609638946</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.95295430729</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.95295430729</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090459</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194383</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287635</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
         <v>1878.515311311824</v>
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064341</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064341</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="D25" t="n">
-        <v>675.4941957298054</v>
+        <v>2029.625730670909</v>
       </c>
       <c r="E25" t="n">
-        <v>527.5811021474123</v>
+        <v>2029.625730670909</v>
       </c>
       <c r="F25" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064341</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064341</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064341</v>
+        <v>2179.742370083245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447094</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2129885066827</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D26" t="n">
-        <v>466.9472898999322</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511216</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6300,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064341</v>
+        <v>670.8289867904817</v>
       </c>
       <c r="S28" t="n">
-        <v>571.3497027553424</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="T28" t="n">
-        <v>571.3497027553424</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="U28" t="n">
-        <v>571.3497027553424</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785527</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889451</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757142</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.54400078133</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>857.6950425204218</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C32" t="n">
-        <v>857.6950425204218</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2305.131675370998</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2305.131675370998</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>1974.068788027427</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>1621.300132757313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X32" t="n">
-        <v>1247.834374496234</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y32" t="n">
-        <v>857.6950425204218</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615927</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.4038777286578</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C34" t="n">
-        <v>302.4676948007509</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D34" t="n">
-        <v>302.4676948007509</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="E34" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="F34" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>471.4038777286578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>471.4038777286578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>471.4038777286578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>471.4038777286578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>471.4038777286578</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.4038777286578</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>850.7171392082162</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>711.9670495176827</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>294.0032414158695</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>2353.690724779344</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.922069509229</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X35" t="n">
-        <v>1627.45631124815</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y35" t="n">
-        <v>1237.316979272338</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.0273259635866</v>
+        <v>2034.759901361457</v>
       </c>
       <c r="C37" t="n">
-        <v>184.0273259635866</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D37" t="n">
-        <v>184.0273259635866</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E37" t="n">
-        <v>184.0273259635866</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F37" t="n">
-        <v>184.0273259635866</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G37" t="n">
-        <v>184.0273259635866</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064341</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064341</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064341</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005472</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635866</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635866</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.0273259635866</v>
+        <v>2034.759901361457</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2636.818952052699</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2467.882769124792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2317.766129712456</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
         <v>2022.963088632153</v>
@@ -7363,19 +7365,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
         <v>882.8926947117852</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2418.885877611043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2418.885877611043</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>2418.885877611043</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7597,16 +7599,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1112.426648284105</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C44" t="n">
-        <v>1112.426648284105</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D44" t="n">
-        <v>754.1609496773547</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="E44" t="n">
-        <v>368.3726970791104</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.426648284105</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1112.426648284105</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451766</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451762</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.41997957426332</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>361.6700542658303</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.74592769735787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>27.16198736469465</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>56.88981283233855</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22963,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>101.2183354764087</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23024,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>313.7691495546103</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>350.3777054535745</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>254.8519103109223</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,13 +23317,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>15.12406693471695</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23467,13 +23469,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>89.79231049790008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890129</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23738,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>31.86743971662654</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>158.5223815080146</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168107</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>128.4443867405217</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,7 +24028,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>27.38738814000496</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24184,16 +24186,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>28.98780970275104</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727119</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24367,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>96.50703242634992</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.8250324045627</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>133.680862922387</v>
       </c>
       <c r="E26" t="n">
-        <v>296.9788778378469</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>89.93819453836466</v>
       </c>
       <c r="S28" t="n">
-        <v>56.93405031343812</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>56.83357210574927</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>57.24519425068942</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>56.56538563778172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6541165664442</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25126,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>86.26311576480711</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.20687846845696</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,10 +25213,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>155.5679764966166</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,13 +25329,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>27.38738814000519</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>192.1919065928394</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>172.0020656044685</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>207.93925170335</v>
       </c>
       <c r="F44" t="n">
-        <v>95.59062763555289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401878</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="G2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149698</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407502.9957973455</v>
+        <v>-407502.9957973456</v>
       </c>
       <c r="C6" t="n">
         <v>182464.8834171989</v>
       </c>
       <c r="D6" t="n">
-        <v>182464.8834171989</v>
+        <v>182464.8834171987</v>
       </c>
       <c r="E6" t="n">
         <v>216092.4834171988</v>
       </c>
       <c r="F6" t="n">
+        <v>216092.4834171989</v>
+      </c>
+      <c r="G6" t="n">
+        <v>216092.4834171986</v>
+      </c>
+      <c r="H6" t="n">
+        <v>216092.4834171986</v>
+      </c>
+      <c r="I6" t="n">
         <v>216092.4834171987</v>
       </c>
-      <c r="G6" t="n">
-        <v>216092.4834171988</v>
-      </c>
-      <c r="H6" t="n">
-        <v>216092.4834171988</v>
-      </c>
-      <c r="I6" t="n">
-        <v>216092.4834171988</v>
-      </c>
       <c r="J6" t="n">
-        <v>39669.26422460595</v>
+        <v>39669.26422460582</v>
       </c>
       <c r="K6" t="n">
         <v>216092.4834171988</v>
       </c>
       <c r="L6" t="n">
+        <v>216092.4834171986</v>
+      </c>
+      <c r="M6" t="n">
+        <v>216092.4834171989</v>
+      </c>
+      <c r="N6" t="n">
         <v>216092.4834171988</v>
       </c>
-      <c r="M6" t="n">
-        <v>216092.4834171987</v>
-      </c>
-      <c r="N6" t="n">
-        <v>216092.4834171987</v>
-      </c>
       <c r="O6" t="n">
-        <v>216092.4834171988</v>
+        <v>216092.4834171989</v>
       </c>
       <c r="P6" t="n">
         <v>216092.4834171989</v>
@@ -26741,34 +26743,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26799,28 +26801,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32008,25 +32010,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32245,25 +32247,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32482,25 +32484,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M31" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N31" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,7 +33420,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
         <v>193.1674799081577</v>
@@ -33430,7 +33432,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
         <v>255.8615389119865</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,7 +33657,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
         <v>193.1674799081577</v>
@@ -33667,7 +33669,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
         <v>255.8615389119865</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479577</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M37" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
         <v>148.370846145888</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
         <v>148.370846145888</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M31" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N31" t="n">
         <v>148.370846145888</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N34" t="n">
         <v>148.370846145888</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N37" t="n">
         <v>148.370846145888</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
